--- a/Subnets/0.xlsx
+++ b/Subnets/0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa1849326a6bb03d/Archive/Documents/Python/Ngrok Minecraft Server Finder/Ngrok-Minecraft-Server-Finder/Subnets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_4F5984D4051929B503390BC570B2AA7E59AB0F50" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4F85591-F8C1-4AFA-8BEE-35ECC604DEBA}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_7C4DDA07C012BB658D1FDFADF1C283A074F7ADCB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6441EF1-61C5-4F7D-8826-4335A03602FD}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="1845" windowWidth="18120" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="1065" windowWidth="18120" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,31 +20,246 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Subnet</t>
-  </si>
-  <si>
-    <t>Port</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Motd</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Max</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="74">
+  <si>
+    <t>1.17.1</t>
+  </si>
+  <si>
+    <t>ACE &amp; TME and Co.</t>
+  </si>
+  <si>
+    <t>Spigot 1.17.1</t>
+  </si>
+  <si>
+    <t>Hurensohn</t>
+  </si>
+  <si>
+    <t>1.16.5</t>
+  </si>
+  <si>
+    <t>Slowly getting better</t>
+  </si>
+  <si>
+    <t>Engineers Life 2 Server</t>
+  </si>
+  <si>
+    <t>§cBloodsport MC §e| §4 1.16.5 Modded SMP</t>
+  </si>
+  <si>
+    <t>A salad with croutons is just a bunch of sandwiches</t>
+  </si>
+  <si>
+    <t>1.12.2</t>
+  </si>
+  <si>
+    <t>StoneBlock 1.0.33</t>
+  </si>
+  <si>
+    <t>§6Perplex Minecraft Server§r
+§2§o90% bug free! §2§o§kALMOST</t>
+  </si>
+  <si>
+    <t>A Minecraft Server</t>
+  </si>
+  <si>
+    <t>§f╔╝§6 Welcome§6 to§4 Pi§f-§6craft§f.§6net!§f ╚╗§r
+§f╚╗       1.16.5 Server     ╔╝</t>
+  </si>
+  <si>
+    <t>Paper 1.17.1</t>
+  </si>
+  <si>
+    <t>Server-ARM</t>
+  </si>
+  <si>
+    <t>Minecraft is for the Bois</t>
+  </si>
+  <si>
+    <t>WSUXC BABY</t>
+  </si>
+  <si>
+    <t>Spigot 1.16.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§c║§b§l§o§nTHE BOIZ DO BE GAMING!§c §6§l§o§mThe boys in the hood§r
+§c╚════════════════════════════════════════════ </t>
+  </si>
+  <si>
+    <t>1.7.10</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>1.14.4</t>
+  </si>
+  <si>
+    <t>CraftBukkit 1.17.1</t>
+  </si>
+  <si>
+    <t>Paper 1.12.2</t>
+  </si>
+  <si>
+    <t>21w41a</t>
+  </si>
+  <si>
+    <t>Welcome to Craft</t>
+  </si>
+  <si>
+    <t>Waterfall 1.8.x, 1.9.x, 1.10.x, 1.11.x, 1.12.x, 1.13.x, 1.14.x, 1.15.x, 1.16.x, 1.17.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    §7§l§k---§r§5§l Welcome! §7§l§k---
+          §7§l§k---§r§5§l To Gamer Gang V4 §7§l§k---'</t>
+  </si>
+  <si>
+    <t>Couples who game together. Stay Together.</t>
+  </si>
+  <si>
+    <t>§aA Minecraft Network. §7|  §eHello, §l§eAlloE318!
+§7Now with [§l§aNew Seed§7], [§l§aDecent plugins§7], and much more!</t>
+  </si>
+  <si>
+    <t>Nockus - New World</t>
+  </si>
+  <si>
+    <t>§2Zoulou Paper§l§4 |§3 Kutay§l§4 |§6 Fritz Moumou</t>
+  </si>
+  <si>
+    <t>Vish Survival Multiplayer</t>
+  </si>
+  <si>
+    <t>KSG 1.17.1</t>
+  </si>
+  <si>
+    <t>§l§5KOREAN§f §l§6SPOOKY§f §l§5GARLIC§f §7»§f §61.17.1§f
+§eThis is halloween! Hail to the pumpkin king!§f</t>
+  </si>
+  <si>
+    <t>AMogus SUSUS</t>
+  </si>
+  <si>
+    <t>§fPROJECT PAPER
+§l§9--&gt;§aHAPPY BIRTHDAY MICHAEL!!!!!!§l§9&lt;--</t>
+  </si>
+  <si>
+    <t>1.16.1</t>
+  </si>
+  <si>
+    <t>1.10.2</t>
+  </si>
+  <si>
+    <t>21w42a</t>
+  </si>
+  <si>
+    <t>SMPDogEE, but with cat!</t>
+  </si>
+  <si>
+    <t>Paper 1.16.5</t>
+  </si>
+  <si>
+    <t>SlateRoof server</t>
+  </si>
+  <si>
+    <t>§2Ya§3wa§4wa§5wa§6wa</t>
+  </si>
+  <si>
+    <t>RaisedSkate - travis scott</t>
+  </si>
+  <si>
+    <t>Spigot 1.12.2</t>
+  </si>
+  <si>
+    <t>§bSpaceCraft Server</t>
+  </si>
+  <si>
+    <t>Monke server</t>
+  </si>
+  <si>
+    <t>Zan and Macks Paradise</t>
+  </si>
+  <si>
+    <t>§l§aCult Craft
+§e"i dont have thoughts, i have bitches" -cheb</t>
+  </si>
+  <si>
+    <t>A whole new world</t>
+  </si>
+  <si>
+    <t>Bienvenue en enfer</t>
+  </si>
+  <si>
+    <t>Spigot 1.15.2</t>
+  </si>
+  <si>
+    <t>Friday Night Funkin</t>
+  </si>
+  <si>
+    <t>§lThe 1.7.10 Pack Server v0.10.2</t>
+  </si>
+  <si>
+    <t>1.14.3</t>
+  </si>
+  <si>
+    <t>§d§oSkyFactory 4: Server§r - §4v4.2.2</t>
+  </si>
+  <si>
+    <t>Hosted by CPT. Nicholas S</t>
+  </si>
+  <si>
+    <t>gamongus | actually not sure if yall babies anymore</t>
+  </si>
+  <si>
+    <t>Sans_BR - squid hunt</t>
+  </si>
+  <si>
+    <t>SHEOL CHILDREN</t>
+  </si>
+  <si>
+    <t>§4§lCosmic Crossplayers §8| §eLegends Server§r
+§6§oNow using Legends 7.19</t>
+  </si>
+  <si>
+    <t>A terraria server</t>
+  </si>
+  <si>
+    <t>Spigot 1.8.8</t>
+  </si>
+  <si>
+    <t>The Fun of Crafting!</t>
+  </si>
+  <si>
+    <t>1.12.x to 1.17.x</t>
+  </si>
+  <si>
+    <t>§l§cM§l§ca§l§ct§l§ct§l§4h§l§4e§l§4w§l§4c§l§4o§l§4m§l§4p§l§4u§l§4t§l§4e§l§4r§l§4 §l§4N§l§4e§l§4t§l§4w§l§4o§l§4r§l§4k§l §a         1.12.x to 1.17.x
+§4W§4E§4 §4D§4I§4D§4 §5w§5-§5 §5w§5-§5 §5W§5E§1 §1D§1I§1D§1 §1I§1T§1!</t>
+  </si>
+  <si>
+    <t>§4------ §2Vault Hunters. §6VER. 2 §c2 §4------§r
+           §4------ §eEnjoy §4------</t>
+  </si>
+  <si>
+    <t>&lt;-- the gays, gave them discord</t>
+  </si>
+  <si>
+    <t>Def an advanced server, but could not find a base</t>
+  </si>
+  <si>
+    <t>Nothing to hit. Very little found chests</t>
+  </si>
+  <si>
+    <t>Needs discord link</t>
+  </si>
+  <si>
+    <t>lmao these guys are idiots</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,21 +268,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,18 +321,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -403,44 +653,1880 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A2:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="52.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="52.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>12218</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>15445</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>16757</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>10584</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>12420</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>16830</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>16939</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>18882</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>19298</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>19336</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>19537</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>19954</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>18880</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>12283</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>15264</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3">
+        <v>10088</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10121</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3">
+        <v>10376</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3">
+        <v>11116</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3">
+        <v>11730</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3">
+        <v>11827</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3">
+        <v>12038</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3">
+        <v>12106</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3">
+        <v>12861</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4</v>
+      </c>
+      <c r="F25" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3">
+        <v>13207</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3">
+        <v>16269</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>0</v>
+      </c>
+      <c r="B28" s="3">
+        <v>16277</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>0</v>
+      </c>
+      <c r="B29" s="3">
+        <v>16837</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>0</v>
+      </c>
+      <c r="B30" s="3">
+        <v>17036</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4">
+        <v>17908</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>0</v>
+      </c>
+      <c r="B32" s="3">
+        <v>18658</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>0</v>
+      </c>
+      <c r="B33" s="3">
+        <v>19416</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>0</v>
+      </c>
+      <c r="B34" s="3">
+        <v>19955</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>0</v>
+      </c>
+      <c r="B35" s="3">
+        <v>10047</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>0</v>
+      </c>
+      <c r="B36" s="4">
+        <v>10515</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>0</v>
+      </c>
+      <c r="B37" s="3">
+        <v>11066</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>0</v>
+      </c>
+      <c r="B38" s="4">
+        <v>12090</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>0</v>
+      </c>
+      <c r="B39" s="5">
+        <v>13603</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>0</v>
+      </c>
+      <c r="B40" s="3">
+        <v>14842</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>0</v>
+      </c>
+      <c r="B41" s="3">
+        <v>14898</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>0</v>
+      </c>
+      <c r="B42" s="3">
+        <v>15185</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>0</v>
+      </c>
+      <c r="B43" s="3">
+        <v>16573</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>0</v>
+      </c>
+      <c r="B44" s="3">
+        <v>17602</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>0</v>
+      </c>
+      <c r="B45" s="3">
+        <v>17752</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>0</v>
+      </c>
+      <c r="B46" s="4">
+        <v>17971</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>20</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>0</v>
+      </c>
+      <c r="B47" s="3">
+        <v>18156</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>0</v>
+      </c>
+      <c r="B48" s="3">
+        <v>18403</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
+      <c r="F48" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>0</v>
+      </c>
+      <c r="B49" s="3">
+        <v>19079</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>0</v>
+      </c>
+      <c r="B50" s="3">
+        <v>19398</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>0</v>
+      </c>
+      <c r="B51" s="3">
+        <v>19479</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F51" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>0</v>
+      </c>
+      <c r="B52" s="3">
+        <v>19998</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2</v>
+      </c>
+      <c r="F52" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>12091</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>14101</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>17182</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>18849</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>19434</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>13258</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>19410</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>15467</v>
+      </c>
+      <c r="C60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>0</v>
+      </c>
+      <c r="B61" s="3">
+        <v>12378</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>0</v>
+      </c>
+      <c r="B62" s="3">
+        <v>18400</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>0</v>
+      </c>
+      <c r="B63" s="3">
+        <v>14628</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>13111</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>0</v>
+      </c>
+      <c r="B65" s="3">
+        <v>16127</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>0</v>
+      </c>
+      <c r="B66" s="3">
+        <v>16208</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>0</v>
+      </c>
+      <c r="B67" s="4">
+        <v>19306</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>0</v>
+      </c>
+      <c r="B68" s="3">
+        <v>11820</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>0</v>
+      </c>
+      <c r="B69" s="3">
+        <v>11898</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="3">
+        <v>2</v>
+      </c>
+      <c r="F69" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>0</v>
+      </c>
+      <c r="B70" s="3">
+        <v>14045</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>0</v>
+      </c>
+      <c r="B71" s="3">
+        <v>14145</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="3"/>
+    <row r="72" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>0</v>
+      </c>
+      <c r="B72" s="3">
+        <v>14191</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>0</v>
+      </c>
+      <c r="B73" s="3">
+        <v>15098</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>0</v>
+      </c>
+      <c r="B74" s="3">
+        <v>15598</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>0</v>
+      </c>
+      <c r="B75" s="3">
+        <v>16325</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>0</v>
+      </c>
+      <c r="B76" s="4">
+        <v>16423</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>0</v>
+      </c>
+      <c r="B77" s="4">
+        <v>17691</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1</v>
+      </c>
+      <c r="F77" s="4">
+        <v>20</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>0</v>
+      </c>
+      <c r="B78" s="3">
+        <v>17724</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>0</v>
+      </c>
+      <c r="B79" s="3">
+        <v>19698</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>16805</v>
+      </c>
+      <c r="C80" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>18177</v>
+      </c>
+      <c r="C81" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>0</v>
+      </c>
+      <c r="B82" s="4">
+        <v>12029</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>0</v>
+      </c>
+      <c r="B83" s="5">
+        <v>16365</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0</v>
+      </c>
+      <c r="F83" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>0</v>
+      </c>
+      <c r="B84" s="5">
+        <v>17551</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0</v>
+      </c>
+      <c r="F84" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>0</v>
+      </c>
+      <c r="B85" s="3">
+        <v>10050</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="3">
+        <v>2</v>
+      </c>
+      <c r="F85" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <v>0</v>
+      </c>
+      <c r="B86" s="5">
+        <v>11565</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0</v>
+      </c>
+      <c r="F86" s="5">
+        <v>20</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>0</v>
+      </c>
+      <c r="B87" s="3">
+        <v>12367</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>0</v>
+      </c>
+      <c r="B88" s="5">
+        <v>12745</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="5">
+        <v>0</v>
+      </c>
+      <c r="F88" s="5">
+        <v>20</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>0</v>
+      </c>
+      <c r="B89" s="3">
+        <v>15722</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3">
+        <v>69420</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>0</v>
+      </c>
+      <c r="B90" s="4">
+        <v>17512</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>0</v>
+      </c>
+      <c r="B91" s="4">
+        <v>19083</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0</v>
+      </c>
+      <c r="F91" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>19548</v>
+      </c>
+      <c r="C92" t="s">
+        <v>64</v>
+      </c>
+      <c r="D92" t="s">
+        <v>65</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>13352</v>
+      </c>
+      <c r="C93" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D94" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F94">
+    <sortCondition ref="C2:C94"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
